--- a/resources/experiment 1/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2920447597530899</v>
+        <v>2920447597530898</v>
       </c>
       <c r="C2" t="n">
         <v>2920447597530899</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6213682561490.674</v>
+        <v>8463869133625.325</v>
       </c>
       <c r="C3" t="n">
-        <v>6176385940387.029</v>
+        <v>7571230317425.839</v>
       </c>
       <c r="D3" t="n">
-        <v>6176385940387.029</v>
+        <v>6848878418676.227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16061525592262.83</v>
+        <v>2975774401670.688</v>
       </c>
       <c r="C4" t="n">
-        <v>16060783944707.79</v>
+        <v>2819154696319.6</v>
       </c>
       <c r="D4" t="n">
-        <v>16060783944707.79</v>
+        <v>3054084254346.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199082376606789</v>
+        <v>90146323950372.44</v>
       </c>
       <c r="C5" t="n">
-        <v>197688789905804.2</v>
+        <v>141214467684338.8</v>
       </c>
       <c r="D5" t="n">
-        <v>197688789905804.2</v>
+        <v>197909518742438</v>
       </c>
     </row>
   </sheetData>
